--- a/biology/Botanique/Jardin_botanique_de_Kinshasa/Jardin_botanique_de_Kinshasa.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Kinshasa/Jardin_botanique_de_Kinshasa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de Kinshasa est un jardin d'une superficie de 7 ha situé au cœur de la ville de Kinshasa en République démocratique du Congo, précisément dans la commune de la Gombe à côté du grand marché (appelé Zando) sur l'avenues Kasa-Vubu. Entre l'avenue Commerce et Ruakadingi.
-En 1933 est créé le parc Fernand De Boeck  (du nom du commissaire de District du Moyen-Congo de l'époque) dans la capitale du Congo belge. Laissé durant plusieurs décennies à l'abandon, le jardin qui compte plus de 100 espèces d'arbres a été réhabilité au début des années 2000 grâce à un projet soutenu par la France, l'Union européenne, l’UICN, le Jardin botanique national de Belgique et l’ONG les Amis de la nature et des jardins, pour héberger les activités d'éducation à l'environnement[1].
-En 2012, Les Amis de la nature et des jardins dénoncent les menaces qui pèsent sur les jardins botaniques du Congo[2].
+En 1933 est créé le parc Fernand De Boeck  (du nom du commissaire de District du Moyen-Congo de l'époque) dans la capitale du Congo belge. Laissé durant plusieurs décennies à l'abandon, le jardin qui compte plus de 100 espèces d'arbres a été réhabilité au début des années 2000 grâce à un projet soutenu par la France, l'Union européenne, l’UICN, le Jardin botanique national de Belgique et l’ONG les Amis de la nature et des jardins, pour héberger les activités d'éducation à l'environnement.
+En 2012, Les Amis de la nature et des jardins dénoncent les menaces qui pèsent sur les jardins botaniques du Congo.
 </t>
         </is>
       </c>
